--- a/Documentacion/Presentacion/ISO 27002 - SIC (1).xlsx
+++ b/Documentacion/Presentacion/ISO 27002 - SIC (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Quickgift\Documentacion\Presentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1371,369 +1371,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="15" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="15" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="15" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,6 +1396,363 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="15" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="15" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="15" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E147" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M167" sqref="M167"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,61 +2089,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H1" s="168" t="s">
+      <c r="H1" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="169"/>
-      <c r="J1" s="170"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
     </row>
     <row r="4" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="194"/>
-      <c r="C4" s="193" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="198"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="195"/>
-      <c r="C5" s="193" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="199" t="s">
+      <c r="D5" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="199"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="196"/>
-      <c r="C6" s="197" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="200" t="s">
+      <c r="D6" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="200"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="197"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="10" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="180">
+      <c r="B12" s="92">
         <v>1</v>
       </c>
       <c r="C12" s="13">
@@ -2194,34 +2194,34 @@
       <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="175"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="2">
         <v>1.5</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="180"/>
-      <c r="C13" s="179">
+      <c r="B13" s="92"/>
+      <c r="C13" s="100">
         <v>1</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="178"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2">
@@ -2235,8 +2235,8 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="180"/>
-      <c r="C14" s="179"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="13">
         <v>1</v>
       </c>
@@ -2259,8 +2259,8 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="180"/>
-      <c r="C15" s="179"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="13">
         <v>2</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="180">
+      <c r="B16" s="92">
         <v>2</v>
       </c>
       <c r="C16" s="13">
@@ -2292,51 +2292,51 @@
       <c r="D16" s="13">
         <v>8</v>
       </c>
-      <c r="E16" s="175" t="s">
+      <c r="E16" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="175"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="2">
         <v>8.27</v>
       </c>
       <c r="H16" s="2">
         <v>45.46</v>
       </c>
-      <c r="I16" s="166">
+      <c r="I16" s="102">
         <v>100</v>
       </c>
-      <c r="J16" s="167"/>
+      <c r="J16" s="103"/>
       <c r="K16" s="23"/>
       <c r="L16" s="18"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="180"/>
-      <c r="C17" s="179">
+      <c r="B17" s="92"/>
+      <c r="C17" s="100">
         <v>1</v>
       </c>
       <c r="D17" s="17">
         <v>11</v>
       </c>
-      <c r="E17" s="178" t="s">
+      <c r="E17" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="178"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="2">
         <v>50.73</v>
       </c>
       <c r="J17" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="180"/>
-      <c r="C18" s="179"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="13">
         <v>1</v>
       </c>
@@ -2359,8 +2359,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="180"/>
-      <c r="C19" s="179"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="13">
         <v>2</v>
       </c>
@@ -2383,8 +2383,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="180"/>
-      <c r="C20" s="179"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="13">
         <v>3</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="L20" s="2">
         <v>70</v>
       </c>
-      <c r="M20" s="201"/>
+      <c r="M20" s="82"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="180"/>
-      <c r="C21" s="179"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="13">
         <v>4</v>
       </c>
@@ -2428,11 +2428,11 @@
       <c r="L21" s="2">
         <v>70</v>
       </c>
-      <c r="M21" s="201"/>
+      <c r="M21" s="82"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
-      <c r="C22" s="179"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="13">
         <v>5</v>
       </c>
@@ -2455,8 +2455,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="180"/>
-      <c r="C23" s="179"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="13">
         <v>6</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="L23" s="2">
         <v>50</v>
       </c>
-      <c r="M23" s="202"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
-      <c r="C24" s="179"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="13">
         <v>7</v>
       </c>
@@ -2503,8 +2503,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="180"/>
-      <c r="C25" s="179"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="13">
         <v>8</v>
       </c>
@@ -2527,17 +2527,17 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="180"/>
-      <c r="C26" s="179">
+      <c r="B26" s="92"/>
+      <c r="C26" s="100">
         <v>2</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="178"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="I26" s="2">
@@ -2551,8 +2551,8 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="180"/>
-      <c r="C27" s="179"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="13">
         <v>1</v>
       </c>
@@ -2572,11 +2572,11 @@
       <c r="L27" s="2">
         <v>71</v>
       </c>
-      <c r="M27" s="201"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="180"/>
-      <c r="C28" s="179"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="13">
         <v>2</v>
       </c>
@@ -2596,11 +2596,11 @@
       <c r="L28" s="2">
         <v>50</v>
       </c>
-      <c r="M28" s="202"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="180"/>
-      <c r="C29" s="179"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="13">
         <v>3</v>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="180">
+      <c r="B31" s="92">
         <v>3</v>
       </c>
       <c r="C31" s="2">
@@ -2670,36 +2670,36 @@
       <c r="D31" s="7">
         <v>5</v>
       </c>
-      <c r="E31" s="175" t="s">
+      <c r="E31" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="175"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="2">
         <v>3.76</v>
       </c>
       <c r="H31" s="2">
         <v>64</v>
       </c>
-      <c r="I31" s="166">
+      <c r="I31" s="102">
         <v>100</v>
       </c>
-      <c r="J31" s="167"/>
+      <c r="J31" s="103"/>
       <c r="K31" s="23"/>
       <c r="L31" s="18"/>
       <c r="M31" s="19"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
-      <c r="C32" s="179">
+      <c r="B32" s="92"/>
+      <c r="C32" s="100">
         <v>1</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="178"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
       <c r="I32" s="2">
@@ -2713,8 +2713,8 @@
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="180"/>
-      <c r="C33" s="179"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="7">
         <v>1</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
-      <c r="C34" s="179"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="7">
         <v>2</v>
       </c>
@@ -2761,8 +2761,8 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="180"/>
-      <c r="C35" s="179"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="7">
         <v>3</v>
       </c>
@@ -2785,17 +2785,17 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
-      <c r="C36" s="179">
+      <c r="B36" s="92"/>
+      <c r="C36" s="100">
         <v>2</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
       </c>
-      <c r="E36" s="178" t="s">
+      <c r="E36" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="178"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
       <c r="I36" s="2">
@@ -2809,8 +2809,8 @@
       <c r="M36" s="27"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="180"/>
-      <c r="C37" s="179"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="7">
         <v>1</v>
       </c>
@@ -2833,8 +2833,8 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
-      <c r="C38" s="179"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="7">
         <v>2</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="180">
+      <c r="B39" s="92">
         <v>4</v>
       </c>
       <c r="C39" s="2">
@@ -2866,36 +2866,36 @@
       <c r="D39" s="7">
         <v>9</v>
       </c>
-      <c r="E39" s="175" t="s">
+      <c r="E39" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="175"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="2">
         <v>6.77</v>
       </c>
       <c r="H39" s="2">
         <v>63.3</v>
       </c>
-      <c r="I39" s="166">
+      <c r="I39" s="102">
         <v>100</v>
       </c>
-      <c r="J39" s="167"/>
+      <c r="J39" s="103"/>
       <c r="K39" s="23"/>
       <c r="L39" s="18"/>
       <c r="M39" s="19"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
-      <c r="C40" s="179">
+      <c r="B40" s="92"/>
+      <c r="C40" s="100">
         <v>1</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
       </c>
-      <c r="E40" s="178" t="s">
+      <c r="E40" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="178"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="2">
@@ -2909,8 +2909,8 @@
       <c r="M40" s="22"/>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="180"/>
-      <c r="C41" s="179"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="100"/>
       <c r="D41" s="7">
         <v>1</v>
       </c>
@@ -2933,8 +2933,8 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
-      <c r="C42" s="179"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="100"/>
       <c r="D42" s="7">
         <v>2</v>
       </c>
@@ -2957,8 +2957,8 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="180"/>
-      <c r="C43" s="179"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="100"/>
       <c r="D43" s="7">
         <v>3</v>
       </c>
@@ -2981,17 +2981,17 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
-      <c r="C44" s="179">
+      <c r="B44" s="92"/>
+      <c r="C44" s="100">
         <v>2</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
       </c>
-      <c r="E44" s="178" t="s">
+      <c r="E44" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="178"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="2">
@@ -3005,8 +3005,8 @@
       <c r="M44" s="27"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
-      <c r="C45" s="179"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="7">
         <v>1</v>
       </c>
@@ -3029,8 +3029,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
-      <c r="C46" s="179"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="7">
         <v>2</v>
       </c>
@@ -3053,8 +3053,8 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="180"/>
-      <c r="C47" s="179"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="7">
         <v>3</v>
       </c>
@@ -3077,17 +3077,17 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
-      <c r="C48" s="185">
+      <c r="B48" s="92"/>
+      <c r="C48" s="93">
         <v>3</v>
       </c>
       <c r="D48" s="9">
         <v>3</v>
       </c>
-      <c r="E48" s="184" t="s">
+      <c r="E48" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="184"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="15"/>
       <c r="H48" s="16"/>
       <c r="I48" s="2">
@@ -3101,8 +3101,8 @@
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
-      <c r="C49" s="186"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="10">
         <v>1</v>
       </c>
@@ -3125,8 +3125,8 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
-      <c r="C50" s="186"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="10">
         <v>2</v>
       </c>
@@ -3149,8 +3149,8 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="180"/>
-      <c r="C51" s="187"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="10">
         <v>3</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="189">
+      <c r="B53" s="97">
         <v>5</v>
       </c>
       <c r="C53" s="28">
@@ -3220,38 +3220,38 @@
       <c r="D53" s="29">
         <v>13</v>
       </c>
-      <c r="E53" s="188" t="s">
+      <c r="E53" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="188"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="28">
         <v>9.77</v>
       </c>
       <c r="H53" s="28">
         <v>50</v>
       </c>
-      <c r="I53" s="166">
+      <c r="I53" s="102">
         <v>100</v>
       </c>
-      <c r="J53" s="167"/>
+      <c r="J53" s="103"/>
       <c r="K53" s="23"/>
       <c r="L53" s="18"/>
       <c r="M53" s="19"/>
     </row>
     <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="190"/>
-      <c r="C54" s="181">
+      <c r="B54" s="98"/>
+      <c r="C54" s="116">
         <v>1</v>
       </c>
       <c r="D54" s="30">
         <v>6</v>
       </c>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="97"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="107"/>
       <c r="I54" s="31">
         <v>46.15</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="M54" s="22"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="190"/>
-      <c r="C55" s="182"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="33">
         <v>1</v>
       </c>
@@ -3274,10 +3274,10 @@
       <c r="F55" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="98"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="192"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="112"/>
       <c r="K55" s="2">
         <v>7.69</v>
       </c>
@@ -3287,8 +3287,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="190"/>
-      <c r="C56" s="182"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="33">
         <v>2</v>
       </c>
@@ -3298,10 +3298,10 @@
       <c r="F56" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="130"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="113"/>
       <c r="K56" s="2">
         <v>7.69</v>
       </c>
@@ -3311,8 +3311,8 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="190"/>
-      <c r="C57" s="182"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="33">
         <v>3</v>
       </c>
@@ -3322,10 +3322,10 @@
       <c r="F57" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="130"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="113"/>
       <c r="K57" s="2">
         <v>7.69</v>
       </c>
@@ -3335,8 +3335,8 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="190"/>
-      <c r="C58" s="182"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="33">
         <v>4</v>
       </c>
@@ -3346,10 +3346,10 @@
       <c r="F58" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="98"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="130"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="113"/>
       <c r="K58" s="2">
         <v>7.69</v>
       </c>
@@ -3359,8 +3359,8 @@
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="190"/>
-      <c r="C59" s="182"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="33">
         <v>5</v>
       </c>
@@ -3370,10 +3370,10 @@
       <c r="F59" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="98"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="130"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="113"/>
       <c r="K59" s="2">
         <v>7.69</v>
       </c>
@@ -3383,8 +3383,8 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="190"/>
-      <c r="C60" s="183"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="33">
         <v>6</v>
       </c>
@@ -3394,10 +3394,10 @@
       <c r="F60" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="98"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="131"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="114"/>
       <c r="K60" s="2">
         <v>7.69</v>
       </c>
@@ -3407,19 +3407,19 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="190"/>
-      <c r="C61" s="181">
+      <c r="B61" s="98"/>
+      <c r="C61" s="116">
         <v>2</v>
       </c>
       <c r="D61" s="30">
         <v>7</v>
       </c>
-      <c r="E61" s="94" t="s">
+      <c r="E61" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="95"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="109"/>
       <c r="I61" s="31">
         <v>53.85</v>
       </c>
@@ -3431,8 +3431,8 @@
       <c r="M61" s="36"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="190"/>
-      <c r="C62" s="182"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="33">
         <v>1</v>
       </c>
@@ -3442,10 +3442,10 @@
       <c r="F62" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="192"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="112"/>
       <c r="K62" s="2">
         <v>7.69</v>
       </c>
@@ -3455,8 +3455,8 @@
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="190"/>
-      <c r="C63" s="182"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="117"/>
       <c r="D63" s="33">
         <v>2</v>
       </c>
@@ -3466,10 +3466,10 @@
       <c r="F63" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G63" s="98"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="130"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="113"/>
       <c r="K63" s="2">
         <v>7.69</v>
       </c>
@@ -3479,8 +3479,8 @@
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="190"/>
-      <c r="C64" s="182"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="33">
         <v>3</v>
       </c>
@@ -3490,10 +3490,10 @@
       <c r="F64" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="98"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="130"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="113"/>
       <c r="K64" s="2">
         <v>7.69</v>
       </c>
@@ -3503,8 +3503,8 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="190"/>
-      <c r="C65" s="182"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="33">
         <v>4</v>
       </c>
@@ -3514,10 +3514,10 @@
       <c r="F65" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="130"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="113"/>
       <c r="K65" s="2">
         <v>7.69</v>
       </c>
@@ -3527,8 +3527,8 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="190"/>
-      <c r="C66" s="182"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="117"/>
       <c r="D66" s="33">
         <v>5</v>
       </c>
@@ -3538,10 +3538,10 @@
       <c r="F66" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="98"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="130"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="113"/>
       <c r="K66" s="2">
         <v>7.69</v>
       </c>
@@ -3551,8 +3551,8 @@
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="190"/>
-      <c r="C67" s="182"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="33">
         <v>6</v>
       </c>
@@ -3562,10 +3562,10 @@
       <c r="F67" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="98"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="130"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="113"/>
       <c r="K67" s="2">
         <v>7.69</v>
       </c>
@@ -3575,8 +3575,8 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="191"/>
-      <c r="C68" s="183"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="118"/>
       <c r="D68" s="33">
         <v>7</v>
       </c>
@@ -3586,10 +3586,10 @@
       <c r="F68" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="100"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="131"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="114"/>
       <c r="K68" s="2">
         <v>7.69</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
     </row>
     <row r="70" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="134">
+      <c r="B70" s="173">
         <v>6</v>
       </c>
       <c r="C70" s="37">
@@ -3665,7 +3665,7 @@
       <c r="M70" s="146"/>
     </row>
     <row r="71" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="109"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="137">
         <v>1</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="M71" s="149"/>
     </row>
     <row r="72" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="109"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="138"/>
       <c r="D72" s="44">
         <v>1</v>
@@ -3713,7 +3713,7 @@
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="109"/>
+      <c r="B73" s="174"/>
       <c r="C73" s="138"/>
       <c r="D73" s="44">
         <v>2</v>
@@ -3734,10 +3734,10 @@
       <c r="L73" s="48">
         <v>70</v>
       </c>
-      <c r="M73" s="203"/>
+      <c r="M73" s="84"/>
     </row>
     <row r="74" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="109"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="138"/>
       <c r="D74" s="44">
         <v>3</v>
@@ -3761,7 +3761,7 @@
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="109"/>
+      <c r="B75" s="174"/>
       <c r="C75" s="139"/>
       <c r="D75" s="44">
         <v>4</v>
@@ -3785,7 +3785,7 @@
       <c r="M75" s="49"/>
     </row>
     <row r="76" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
+      <c r="B76" s="174"/>
       <c r="C76" s="137">
         <v>2</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="M76" s="160"/>
     </row>
     <row r="77" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="109"/>
+      <c r="B77" s="174"/>
       <c r="C77" s="138"/>
       <c r="D77" s="44">
         <v>1</v>
@@ -3833,7 +3833,7 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="109"/>
+      <c r="B78" s="174"/>
       <c r="C78" s="138"/>
       <c r="D78" s="44">
         <v>2</v>
@@ -3857,7 +3857,7 @@
       <c r="M78" s="49"/>
     </row>
     <row r="79" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="109"/>
+      <c r="B79" s="174"/>
       <c r="C79" s="139"/>
       <c r="D79" s="44">
         <v>3</v>
@@ -3881,7 +3881,7 @@
       <c r="M79" s="49"/>
     </row>
     <row r="80" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="109"/>
+      <c r="B80" s="174"/>
       <c r="C80" s="137">
         <v>3</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="M80" s="160"/>
     </row>
     <row r="81" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="109"/>
+      <c r="B81" s="174"/>
       <c r="C81" s="138"/>
       <c r="D81" s="44">
         <v>1</v>
@@ -3929,7 +3929,7 @@
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="109"/>
+      <c r="B82" s="174"/>
       <c r="C82" s="139"/>
       <c r="D82" s="44">
         <v>2</v>
@@ -3953,7 +3953,7 @@
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="109"/>
+      <c r="B83" s="174"/>
       <c r="C83" s="137">
         <v>4</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="M83" s="160"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="109"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="138"/>
       <c r="D84" s="44">
         <v>1</v>
@@ -4001,7 +4001,7 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="109"/>
+      <c r="B85" s="174"/>
       <c r="C85" s="139"/>
       <c r="D85" s="44">
         <v>2</v>
@@ -4025,7 +4025,7 @@
       <c r="M85" s="49"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="109"/>
+      <c r="B86" s="174"/>
       <c r="C86" s="137">
         <v>5</v>
       </c>
@@ -4044,12 +4044,12 @@
       <c r="J86" s="51">
         <v>2.19</v>
       </c>
-      <c r="K86" s="163"/>
-      <c r="L86" s="164"/>
-      <c r="M86" s="165"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="121"/>
+      <c r="M86" s="122"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="109"/>
+      <c r="B87" s="174"/>
       <c r="C87" s="139"/>
       <c r="D87" s="44">
         <v>1</v>
@@ -4073,32 +4073,32 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="109"/>
-      <c r="C88" s="78">
+      <c r="B88" s="174"/>
+      <c r="C88" s="168">
         <v>6</v>
       </c>
       <c r="D88" s="30">
         <v>2</v>
       </c>
-      <c r="E88" s="94" t="s">
+      <c r="E88" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="95"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="99"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="109"/>
       <c r="I88" s="31">
         <v>6.25</v>
       </c>
       <c r="J88" s="32">
         <v>5</v>
       </c>
-      <c r="K88" s="102"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="104"/>
+      <c r="K88" s="134"/>
+      <c r="L88" s="135"/>
+      <c r="M88" s="136"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="109"/>
-      <c r="C89" s="79"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="170"/>
       <c r="D89" s="33">
         <v>1</v>
       </c>
@@ -4108,10 +4108,10 @@
       <c r="F89" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="98"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="90"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="163"/>
+      <c r="J89" s="164"/>
       <c r="K89" s="52">
         <v>3.125</v>
       </c>
@@ -4121,8 +4121,8 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="109"/>
-      <c r="C90" s="80"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="169"/>
       <c r="D90" s="33">
         <v>2</v>
       </c>
@@ -4132,10 +4132,10 @@
       <c r="F90" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G90" s="98"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="93"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="109"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="166"/>
       <c r="K90" s="52">
         <v>3.125</v>
       </c>
@@ -4145,32 +4145,32 @@
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="109"/>
-      <c r="C91" s="78">
+      <c r="B91" s="174"/>
+      <c r="C91" s="168">
         <v>7</v>
       </c>
       <c r="D91" s="30">
         <v>4</v>
       </c>
-      <c r="E91" s="94" t="s">
+      <c r="E91" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="F91" s="95"/>
-      <c r="G91" s="98"/>
-      <c r="H91" s="99"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="109"/>
       <c r="I91" s="53">
         <v>12.5</v>
       </c>
       <c r="J91" s="54">
         <v>8.1300000000000008</v>
       </c>
-      <c r="K91" s="102"/>
-      <c r="L91" s="103"/>
-      <c r="M91" s="104"/>
+      <c r="K91" s="134"/>
+      <c r="L91" s="135"/>
+      <c r="M91" s="136"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="109"/>
-      <c r="C92" s="79"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="170"/>
       <c r="D92" s="33">
         <v>1</v>
       </c>
@@ -4180,10 +4180,10 @@
       <c r="F92" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="98"/>
-      <c r="H92" s="99"/>
-      <c r="I92" s="96"/>
-      <c r="J92" s="97"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="107"/>
       <c r="K92" s="52">
         <v>3.125</v>
       </c>
@@ -4193,8 +4193,8 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="109"/>
-      <c r="C93" s="79"/>
+      <c r="B93" s="174"/>
+      <c r="C93" s="170"/>
       <c r="D93" s="33">
         <v>2</v>
       </c>
@@ -4204,10 +4204,10 @@
       <c r="F93" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="98"/>
-      <c r="H93" s="99"/>
-      <c r="I93" s="98"/>
-      <c r="J93" s="99"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="109"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="109"/>
       <c r="K93" s="52">
         <v>3.125</v>
       </c>
@@ -4217,8 +4217,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="109"/>
-      <c r="C94" s="79"/>
+      <c r="B94" s="174"/>
+      <c r="C94" s="170"/>
       <c r="D94" s="33">
         <v>3</v>
       </c>
@@ -4228,21 +4228,21 @@
       <c r="F94" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="98"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="99"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="109"/>
       <c r="K94" s="52">
         <v>3.125</v>
       </c>
       <c r="L94" s="32">
         <v>70</v>
       </c>
-      <c r="M94" s="204"/>
+      <c r="M94" s="85"/>
     </row>
     <row r="95" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="109"/>
-      <c r="C95" s="80"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="169"/>
       <c r="D95" s="33">
         <v>4</v>
       </c>
@@ -4252,45 +4252,45 @@
       <c r="F95" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="98"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="100"/>
-      <c r="J95" s="101"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="110"/>
+      <c r="J95" s="111"/>
       <c r="K95" s="52">
         <v>3.125</v>
       </c>
       <c r="L95" s="32">
         <v>70</v>
       </c>
-      <c r="M95" s="204"/>
+      <c r="M95" s="85"/>
     </row>
     <row r="96" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="109"/>
-      <c r="C96" s="78">
+      <c r="B96" s="174"/>
+      <c r="C96" s="168">
         <v>8</v>
       </c>
       <c r="D96" s="30">
         <v>5</v>
       </c>
-      <c r="E96" s="94" t="s">
+      <c r="E96" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="F96" s="95"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="99"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="109"/>
       <c r="I96" s="31">
         <v>15.63</v>
       </c>
       <c r="J96" s="54">
         <v>7.82</v>
       </c>
-      <c r="K96" s="102"/>
-      <c r="L96" s="103"/>
-      <c r="M96" s="104"/>
+      <c r="K96" s="134"/>
+      <c r="L96" s="135"/>
+      <c r="M96" s="136"/>
     </row>
     <row r="97" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="109"/>
-      <c r="C97" s="79"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="170"/>
       <c r="D97" s="33">
         <v>1</v>
       </c>
@@ -4300,21 +4300,21 @@
       <c r="F97" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G97" s="98"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="96"/>
-      <c r="J97" s="97"/>
+      <c r="G97" s="108"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="107"/>
       <c r="K97" s="52">
         <v>3.1259999999999999</v>
       </c>
       <c r="L97" s="32">
         <v>70</v>
       </c>
-      <c r="M97" s="204"/>
+      <c r="M97" s="85"/>
     </row>
     <row r="98" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="109"/>
-      <c r="C98" s="79"/>
+      <c r="B98" s="174"/>
+      <c r="C98" s="170"/>
       <c r="D98" s="33">
         <v>2</v>
       </c>
@@ -4324,21 +4324,21 @@
       <c r="F98" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G98" s="98"/>
-      <c r="H98" s="99"/>
-      <c r="I98" s="98"/>
-      <c r="J98" s="99"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="109"/>
       <c r="K98" s="52">
         <v>3.1259999999999999</v>
       </c>
       <c r="L98" s="32">
         <v>70</v>
       </c>
-      <c r="M98" s="204"/>
+      <c r="M98" s="85"/>
     </row>
     <row r="99" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="109"/>
-      <c r="C99" s="79"/>
+      <c r="B99" s="174"/>
+      <c r="C99" s="170"/>
       <c r="D99" s="33">
         <v>3</v>
       </c>
@@ -4348,10 +4348,10 @@
       <c r="F99" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G99" s="98"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="98"/>
-      <c r="J99" s="99"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="109"/>
       <c r="K99" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4361,8 +4361,8 @@
       <c r="M99" s="55"/>
     </row>
     <row r="100" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="109"/>
-      <c r="C100" s="79"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="170"/>
       <c r="D100" s="33">
         <v>4</v>
       </c>
@@ -4372,10 +4372,10 @@
       <c r="F100" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G100" s="98"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="98"/>
-      <c r="J100" s="99"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="109"/>
       <c r="K100" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4385,8 +4385,8 @@
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="109"/>
-      <c r="C101" s="80"/>
+      <c r="B101" s="174"/>
+      <c r="C101" s="169"/>
       <c r="D101" s="33">
         <v>5</v>
       </c>
@@ -4396,10 +4396,10 @@
       <c r="F101" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="98"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="101"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="111"/>
       <c r="K101" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4409,32 +4409,32 @@
       <c r="M101" s="55"/>
     </row>
     <row r="102" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="109"/>
-      <c r="C102" s="78">
+      <c r="B102" s="174"/>
+      <c r="C102" s="168">
         <v>9</v>
       </c>
       <c r="D102" s="30">
         <v>3</v>
       </c>
-      <c r="E102" s="135" t="s">
+      <c r="E102" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="95"/>
-      <c r="G102" s="98"/>
-      <c r="H102" s="99"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="109"/>
       <c r="I102" s="31">
         <v>9.3800000000000008</v>
       </c>
       <c r="J102" s="54">
         <v>3.75</v>
       </c>
-      <c r="K102" s="102"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="104"/>
+      <c r="K102" s="134"/>
+      <c r="L102" s="135"/>
+      <c r="M102" s="136"/>
     </row>
     <row r="103" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="109"/>
-      <c r="C103" s="79"/>
+      <c r="B103" s="174"/>
+      <c r="C103" s="170"/>
       <c r="D103" s="56">
         <v>1</v>
       </c>
@@ -4444,10 +4444,10 @@
       <c r="F103" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G103" s="98"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="96"/>
-      <c r="J103" s="97"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="109"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="107"/>
       <c r="K103" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4457,8 +4457,8 @@
       <c r="M103" s="58"/>
     </row>
     <row r="104" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="109"/>
-      <c r="C104" s="79"/>
+      <c r="B104" s="174"/>
+      <c r="C104" s="170"/>
       <c r="D104" s="56">
         <v>2</v>
       </c>
@@ -4468,10 +4468,10 @@
       <c r="F104" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G104" s="98"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="98"/>
-      <c r="J104" s="99"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="109"/>
       <c r="K104" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4481,8 +4481,8 @@
       <c r="M104" s="55"/>
     </row>
     <row r="105" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="109"/>
-      <c r="C105" s="80"/>
+      <c r="B105" s="174"/>
+      <c r="C105" s="169"/>
       <c r="D105" s="56">
         <v>3</v>
       </c>
@@ -4492,45 +4492,45 @@
       <c r="F105" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="98"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="101"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="110"/>
+      <c r="J105" s="111"/>
       <c r="K105" s="52">
         <v>3.1259999999999999</v>
       </c>
       <c r="L105" s="32">
         <v>70</v>
       </c>
-      <c r="M105" s="204"/>
+      <c r="M105" s="85"/>
     </row>
     <row r="106" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="109"/>
-      <c r="C106" s="78">
+      <c r="B106" s="174"/>
+      <c r="C106" s="168">
         <v>10</v>
       </c>
       <c r="D106" s="30">
         <v>6</v>
       </c>
-      <c r="E106" s="136" t="s">
+      <c r="E106" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="95"/>
-      <c r="G106" s="98"/>
-      <c r="H106" s="99"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="109"/>
       <c r="I106" s="31">
         <v>18.75</v>
       </c>
       <c r="J106" s="54">
         <v>3.13</v>
       </c>
-      <c r="K106" s="102"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="104"/>
+      <c r="K106" s="134"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="136"/>
     </row>
     <row r="107" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="109"/>
-      <c r="C107" s="79"/>
+      <c r="B107" s="174"/>
+      <c r="C107" s="170"/>
       <c r="D107" s="33">
         <v>1</v>
       </c>
@@ -4540,10 +4540,10 @@
       <c r="F107" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G107" s="98"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="96"/>
-      <c r="J107" s="97"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="109"/>
+      <c r="I107" s="106"/>
+      <c r="J107" s="107"/>
       <c r="K107" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4553,8 +4553,8 @@
       <c r="M107" s="55"/>
     </row>
     <row r="108" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="109"/>
-      <c r="C108" s="79"/>
+      <c r="B108" s="174"/>
+      <c r="C108" s="170"/>
       <c r="D108" s="33">
         <v>2</v>
       </c>
@@ -4564,21 +4564,21 @@
       <c r="F108" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G108" s="98"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="98"/>
-      <c r="J108" s="99"/>
+      <c r="G108" s="108"/>
+      <c r="H108" s="109"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="109"/>
       <c r="K108" s="52">
         <v>3.1259999999999999</v>
       </c>
       <c r="L108" s="32">
         <v>71</v>
       </c>
-      <c r="M108" s="204"/>
+      <c r="M108" s="85"/>
     </row>
     <row r="109" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="109"/>
-      <c r="C109" s="79"/>
+      <c r="B109" s="174"/>
+      <c r="C109" s="170"/>
       <c r="D109" s="33">
         <v>3</v>
       </c>
@@ -4588,10 +4588,10 @@
       <c r="F109" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G109" s="98"/>
-      <c r="H109" s="99"/>
-      <c r="I109" s="98"/>
-      <c r="J109" s="99"/>
+      <c r="G109" s="108"/>
+      <c r="H109" s="109"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="109"/>
       <c r="K109" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4601,8 +4601,8 @@
       <c r="M109" s="58"/>
     </row>
     <row r="110" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="109"/>
-      <c r="C110" s="79"/>
+      <c r="B110" s="174"/>
+      <c r="C110" s="170"/>
       <c r="D110" s="33">
         <v>4</v>
       </c>
@@ -4612,10 +4612,10 @@
       <c r="F110" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G110" s="98"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="98"/>
-      <c r="J110" s="99"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="109"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="109"/>
       <c r="K110" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4625,8 +4625,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="109"/>
-      <c r="C111" s="79"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="170"/>
       <c r="D111" s="33">
         <v>5</v>
       </c>
@@ -4636,10 +4636,10 @@
       <c r="F111" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G111" s="98"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="98"/>
-      <c r="J111" s="99"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="109"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="109"/>
       <c r="K111" s="52">
         <v>3.1259999999999999</v>
       </c>
@@ -4649,8 +4649,8 @@
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="110"/>
-      <c r="C112" s="80"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="169"/>
       <c r="D112" s="33">
         <v>6</v>
       </c>
@@ -4660,17 +4660,17 @@
       <c r="F112" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G112" s="100"/>
-      <c r="H112" s="101"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="101"/>
+      <c r="G112" s="110"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="110"/>
+      <c r="J112" s="111"/>
       <c r="K112" s="52">
         <v>3.1259999999999999</v>
       </c>
       <c r="L112" s="32">
         <v>100</v>
       </c>
-      <c r="M112" s="205"/>
+      <c r="M112" s="86"/>
     </row>
     <row r="113" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="114" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="121">
+      <c r="B114" s="180">
         <v>7</v>
       </c>
       <c r="C114" s="59">
@@ -4720,51 +4720,51 @@
       <c r="D114" s="59">
         <v>25</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="F114" s="112"/>
+      <c r="F114" s="190"/>
       <c r="G114" s="60">
         <v>18.8</v>
       </c>
       <c r="H114" s="61">
         <v>59.2</v>
       </c>
-      <c r="I114" s="113">
+      <c r="I114" s="191">
         <v>100</v>
       </c>
-      <c r="J114" s="114"/>
-      <c r="K114" s="98"/>
-      <c r="L114" s="130"/>
-      <c r="M114" s="99"/>
+      <c r="J114" s="192"/>
+      <c r="K114" s="108"/>
+      <c r="L114" s="113"/>
+      <c r="M114" s="109"/>
     </row>
     <row r="115" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="122"/>
-      <c r="C115" s="78">
+      <c r="B115" s="181"/>
+      <c r="C115" s="168">
         <v>1</v>
       </c>
       <c r="D115" s="30">
         <v>1</v>
       </c>
-      <c r="E115" s="94" t="s">
+      <c r="E115" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="F115" s="95"/>
-      <c r="G115" s="124"/>
-      <c r="H115" s="125"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="183"/>
+      <c r="H115" s="184"/>
       <c r="I115" s="62">
         <v>4</v>
       </c>
       <c r="J115" s="63">
         <v>2.8</v>
       </c>
-      <c r="K115" s="100"/>
-      <c r="L115" s="131"/>
-      <c r="M115" s="101"/>
+      <c r="K115" s="110"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="111"/>
     </row>
     <row r="116" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="122"/>
-      <c r="C116" s="80"/>
+      <c r="B116" s="181"/>
+      <c r="C116" s="169"/>
       <c r="D116" s="33">
         <v>1</v>
       </c>
@@ -4774,10 +4774,10 @@
       <c r="F116" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="G116" s="126"/>
-      <c r="H116" s="127"/>
-      <c r="I116" s="132"/>
-      <c r="J116" s="133"/>
+      <c r="G116" s="185"/>
+      <c r="H116" s="186"/>
+      <c r="I116" s="171"/>
+      <c r="J116" s="172"/>
       <c r="K116" s="32">
         <v>4</v>
       </c>
@@ -4787,32 +4787,32 @@
       <c r="M116" s="55"/>
     </row>
     <row r="117" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="122"/>
-      <c r="C117" s="78">
+      <c r="B117" s="181"/>
+      <c r="C117" s="168">
         <v>2</v>
       </c>
       <c r="D117" s="30">
         <v>4</v>
       </c>
-      <c r="E117" s="94" t="s">
+      <c r="E117" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="F117" s="95"/>
-      <c r="G117" s="126"/>
-      <c r="H117" s="127"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="185"/>
+      <c r="H117" s="186"/>
       <c r="I117" s="62">
         <v>16</v>
       </c>
       <c r="J117" s="63">
         <v>11.2</v>
       </c>
-      <c r="K117" s="102"/>
-      <c r="L117" s="103"/>
-      <c r="M117" s="104"/>
+      <c r="K117" s="134"/>
+      <c r="L117" s="135"/>
+      <c r="M117" s="136"/>
     </row>
     <row r="118" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="122"/>
-      <c r="C118" s="79"/>
+      <c r="B118" s="181"/>
+      <c r="C118" s="170"/>
       <c r="D118" s="33">
         <v>1</v>
       </c>
@@ -4822,10 +4822,10 @@
       <c r="F118" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G118" s="126"/>
-      <c r="H118" s="127"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="97"/>
+      <c r="G118" s="185"/>
+      <c r="H118" s="186"/>
+      <c r="I118" s="106"/>
+      <c r="J118" s="107"/>
       <c r="K118" s="32">
         <v>4</v>
       </c>
@@ -4835,8 +4835,8 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="122"/>
-      <c r="C119" s="79"/>
+      <c r="B119" s="181"/>
+      <c r="C119" s="170"/>
       <c r="D119" s="33">
         <v>2</v>
       </c>
@@ -4846,10 +4846,10 @@
       <c r="F119" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G119" s="126"/>
-      <c r="H119" s="127"/>
-      <c r="I119" s="98"/>
-      <c r="J119" s="99"/>
+      <c r="G119" s="185"/>
+      <c r="H119" s="186"/>
+      <c r="I119" s="108"/>
+      <c r="J119" s="109"/>
       <c r="K119" s="32">
         <v>4</v>
       </c>
@@ -4859,8 +4859,8 @@
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="122"/>
-      <c r="C120" s="79"/>
+      <c r="B120" s="181"/>
+      <c r="C120" s="170"/>
       <c r="D120" s="33">
         <v>3</v>
       </c>
@@ -4870,10 +4870,10 @@
       <c r="F120" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="126"/>
-      <c r="H120" s="127"/>
-      <c r="I120" s="98"/>
-      <c r="J120" s="99"/>
+      <c r="G120" s="185"/>
+      <c r="H120" s="186"/>
+      <c r="I120" s="108"/>
+      <c r="J120" s="109"/>
       <c r="K120" s="32">
         <v>4</v>
       </c>
@@ -4883,8 +4883,8 @@
       <c r="M120" s="4"/>
     </row>
     <row r="121" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="122"/>
-      <c r="C121" s="80"/>
+      <c r="B121" s="181"/>
+      <c r="C121" s="169"/>
       <c r="D121" s="33">
         <v>4</v>
       </c>
@@ -4894,10 +4894,10 @@
       <c r="F121" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="G121" s="126"/>
-      <c r="H121" s="127"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="101"/>
+      <c r="G121" s="185"/>
+      <c r="H121" s="186"/>
+      <c r="I121" s="110"/>
+      <c r="J121" s="111"/>
       <c r="K121" s="32">
         <v>4</v>
       </c>
@@ -4907,32 +4907,32 @@
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" s="122"/>
-      <c r="C122" s="78">
+      <c r="B122" s="181"/>
+      <c r="C122" s="168">
         <v>3</v>
       </c>
       <c r="D122" s="30">
         <v>2</v>
       </c>
-      <c r="E122" s="94" t="s">
+      <c r="E122" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="F122" s="95"/>
-      <c r="G122" s="126"/>
-      <c r="H122" s="127"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="185"/>
+      <c r="H122" s="186"/>
       <c r="I122" s="53">
         <v>12.5</v>
       </c>
       <c r="J122" s="54">
         <v>3.75</v>
       </c>
-      <c r="K122" s="102"/>
-      <c r="L122" s="103"/>
-      <c r="M122" s="104"/>
+      <c r="K122" s="134"/>
+      <c r="L122" s="135"/>
+      <c r="M122" s="136"/>
     </row>
     <row r="123" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B123" s="122"/>
-      <c r="C123" s="79"/>
+      <c r="B123" s="181"/>
+      <c r="C123" s="170"/>
       <c r="D123" s="33">
         <v>1</v>
       </c>
@@ -4942,21 +4942,21 @@
       <c r="F123" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="126"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="88"/>
-      <c r="J123" s="90"/>
+      <c r="G123" s="185"/>
+      <c r="H123" s="186"/>
+      <c r="I123" s="163"/>
+      <c r="J123" s="164"/>
       <c r="K123" s="54">
         <v>6.25</v>
       </c>
       <c r="L123" s="32">
         <v>20</v>
       </c>
-      <c r="M123" s="206"/>
+      <c r="M123" s="87"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="122"/>
-      <c r="C124" s="80"/>
+      <c r="B124" s="181"/>
+      <c r="C124" s="169"/>
       <c r="D124" s="33">
         <v>2</v>
       </c>
@@ -4966,45 +4966,45 @@
       <c r="F124" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G124" s="126"/>
-      <c r="H124" s="127"/>
-      <c r="I124" s="91"/>
-      <c r="J124" s="93"/>
+      <c r="G124" s="185"/>
+      <c r="H124" s="186"/>
+      <c r="I124" s="165"/>
+      <c r="J124" s="166"/>
       <c r="K124" s="54">
         <v>6.25</v>
       </c>
       <c r="L124" s="32">
         <v>50</v>
       </c>
-      <c r="M124" s="207"/>
+      <c r="M124" s="88"/>
     </row>
     <row r="125" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B125" s="122"/>
-      <c r="C125" s="78">
+      <c r="B125" s="181"/>
+      <c r="C125" s="168">
         <v>4</v>
       </c>
       <c r="D125" s="30">
         <v>3</v>
       </c>
-      <c r="E125" s="94" t="s">
+      <c r="E125" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="F125" s="95"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="127"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="185"/>
+      <c r="H125" s="186"/>
       <c r="I125" s="31">
         <v>18.75</v>
       </c>
       <c r="J125" s="54">
         <v>11.88</v>
       </c>
-      <c r="K125" s="102"/>
-      <c r="L125" s="103"/>
-      <c r="M125" s="104"/>
+      <c r="K125" s="134"/>
+      <c r="L125" s="135"/>
+      <c r="M125" s="136"/>
     </row>
     <row r="126" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" s="122"/>
-      <c r="C126" s="79"/>
+      <c r="B126" s="181"/>
+      <c r="C126" s="170"/>
       <c r="D126" s="33">
         <v>1</v>
       </c>
@@ -5014,10 +5014,10 @@
       <c r="F126" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="G126" s="126"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="97"/>
+      <c r="G126" s="185"/>
+      <c r="H126" s="186"/>
+      <c r="I126" s="106"/>
+      <c r="J126" s="107"/>
       <c r="K126" s="54">
         <v>6.25</v>
       </c>
@@ -5027,8 +5027,8 @@
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="122"/>
-      <c r="C127" s="79"/>
+      <c r="B127" s="181"/>
+      <c r="C127" s="170"/>
       <c r="D127" s="33">
         <v>2</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="F127" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="G127" s="126"/>
-      <c r="H127" s="127"/>
-      <c r="I127" s="98"/>
-      <c r="J127" s="99"/>
+      <c r="G127" s="185"/>
+      <c r="H127" s="186"/>
+      <c r="I127" s="108"/>
+      <c r="J127" s="109"/>
       <c r="K127" s="54">
         <v>6.25</v>
       </c>
@@ -5051,8 +5051,8 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="122"/>
-      <c r="C128" s="80"/>
+      <c r="B128" s="181"/>
+      <c r="C128" s="169"/>
       <c r="D128" s="33">
         <v>3</v>
       </c>
@@ -5062,45 +5062,45 @@
       <c r="F128" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G128" s="126"/>
-      <c r="H128" s="127"/>
-      <c r="I128" s="100"/>
-      <c r="J128" s="101"/>
+      <c r="G128" s="185"/>
+      <c r="H128" s="186"/>
+      <c r="I128" s="110"/>
+      <c r="J128" s="111"/>
       <c r="K128" s="54">
         <v>6.25</v>
       </c>
       <c r="L128" s="32">
         <v>80</v>
       </c>
-      <c r="M128" s="204"/>
+      <c r="M128" s="85"/>
     </row>
     <row r="129" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="122"/>
-      <c r="C129" s="78">
+      <c r="B129" s="181"/>
+      <c r="C129" s="168">
         <v>5</v>
       </c>
       <c r="D129" s="30">
         <v>5</v>
       </c>
-      <c r="E129" s="94" t="s">
+      <c r="E129" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="F129" s="95"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="127"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="185"/>
+      <c r="H129" s="186"/>
       <c r="I129" s="31">
         <v>31.25</v>
       </c>
       <c r="J129" s="54">
         <v>18.75</v>
       </c>
-      <c r="K129" s="102"/>
-      <c r="L129" s="103"/>
-      <c r="M129" s="104"/>
+      <c r="K129" s="134"/>
+      <c r="L129" s="135"/>
+      <c r="M129" s="136"/>
     </row>
     <row r="130" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="122"/>
-      <c r="C130" s="79"/>
+      <c r="B130" s="181"/>
+      <c r="C130" s="170"/>
       <c r="D130" s="33">
         <v>1</v>
       </c>
@@ -5110,10 +5110,10 @@
       <c r="F130" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G130" s="126"/>
-      <c r="H130" s="127"/>
-      <c r="I130" s="96"/>
-      <c r="J130" s="97"/>
+      <c r="G130" s="185"/>
+      <c r="H130" s="186"/>
+      <c r="I130" s="106"/>
+      <c r="J130" s="107"/>
       <c r="K130" s="54">
         <v>6.25</v>
       </c>
@@ -5123,8 +5123,8 @@
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="122"/>
-      <c r="C131" s="79"/>
+      <c r="B131" s="181"/>
+      <c r="C131" s="170"/>
       <c r="D131" s="33">
         <v>2</v>
       </c>
@@ -5134,10 +5134,10 @@
       <c r="F131" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G131" s="126"/>
-      <c r="H131" s="127"/>
-      <c r="I131" s="98"/>
-      <c r="J131" s="99"/>
+      <c r="G131" s="185"/>
+      <c r="H131" s="186"/>
+      <c r="I131" s="108"/>
+      <c r="J131" s="109"/>
       <c r="K131" s="54">
         <v>6.25</v>
       </c>
@@ -5147,8 +5147,8 @@
       <c r="M131" s="55"/>
     </row>
     <row r="132" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="122"/>
-      <c r="C132" s="79"/>
+      <c r="B132" s="181"/>
+      <c r="C132" s="170"/>
       <c r="D132" s="33">
         <v>3</v>
       </c>
@@ -5158,10 +5158,10 @@
       <c r="F132" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="G132" s="126"/>
-      <c r="H132" s="127"/>
-      <c r="I132" s="98"/>
-      <c r="J132" s="99"/>
+      <c r="G132" s="185"/>
+      <c r="H132" s="186"/>
+      <c r="I132" s="108"/>
+      <c r="J132" s="109"/>
       <c r="K132" s="54">
         <v>6.25</v>
       </c>
@@ -5171,8 +5171,8 @@
       <c r="M132" s="55"/>
     </row>
     <row r="133" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="122"/>
-      <c r="C133" s="79"/>
+      <c r="B133" s="181"/>
+      <c r="C133" s="170"/>
       <c r="D133" s="33">
         <v>4</v>
       </c>
@@ -5182,10 +5182,10 @@
       <c r="F133" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G133" s="126"/>
-      <c r="H133" s="127"/>
-      <c r="I133" s="98"/>
-      <c r="J133" s="99"/>
+      <c r="G133" s="185"/>
+      <c r="H133" s="186"/>
+      <c r="I133" s="108"/>
+      <c r="J133" s="109"/>
       <c r="K133" s="54">
         <v>6.25</v>
       </c>
@@ -5195,8 +5195,8 @@
       <c r="M133" s="55"/>
     </row>
     <row r="134" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="122"/>
-      <c r="C134" s="80"/>
+      <c r="B134" s="181"/>
+      <c r="C134" s="169"/>
       <c r="D134" s="33">
         <v>5</v>
       </c>
@@ -5206,45 +5206,45 @@
       <c r="F134" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G134" s="126"/>
-      <c r="H134" s="127"/>
-      <c r="I134" s="100"/>
-      <c r="J134" s="101"/>
+      <c r="G134" s="185"/>
+      <c r="H134" s="186"/>
+      <c r="I134" s="110"/>
+      <c r="J134" s="111"/>
       <c r="K134" s="54">
         <v>6.25</v>
       </c>
       <c r="L134" s="32">
         <v>70</v>
       </c>
-      <c r="M134" s="204"/>
+      <c r="M134" s="85"/>
     </row>
     <row r="135" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="122"/>
-      <c r="C135" s="78">
+      <c r="B135" s="181"/>
+      <c r="C135" s="168">
         <v>6</v>
       </c>
       <c r="D135" s="30">
         <v>1</v>
       </c>
-      <c r="E135" s="94" t="s">
+      <c r="E135" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="F135" s="95"/>
-      <c r="G135" s="126"/>
-      <c r="H135" s="127"/>
+      <c r="F135" s="105"/>
+      <c r="G135" s="185"/>
+      <c r="H135" s="186"/>
       <c r="I135" s="31">
         <v>6.25</v>
       </c>
       <c r="J135" s="54">
         <v>4.38</v>
       </c>
-      <c r="K135" s="118"/>
-      <c r="L135" s="119"/>
-      <c r="M135" s="120"/>
+      <c r="K135" s="177"/>
+      <c r="L135" s="178"/>
+      <c r="M135" s="179"/>
     </row>
     <row r="136" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="123"/>
-      <c r="C136" s="80"/>
+      <c r="B136" s="182"/>
+      <c r="C136" s="169"/>
       <c r="D136" s="33">
         <v>1</v>
       </c>
@@ -5254,10 +5254,10 @@
       <c r="F136" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G136" s="128"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="102"/>
-      <c r="J136" s="104"/>
+      <c r="G136" s="187"/>
+      <c r="H136" s="188"/>
+      <c r="I136" s="134"/>
+      <c r="J136" s="136"/>
       <c r="K136" s="32">
         <v>100</v>
       </c>
@@ -5305,7 +5305,7 @@
       </c>
     </row>
     <row r="138" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" s="109">
+      <c r="B138" s="174">
         <v>8</v>
       </c>
       <c r="C138" s="59">
@@ -5314,51 +5314,51 @@
       <c r="D138" s="59">
         <v>5</v>
       </c>
-      <c r="E138" s="111" t="s">
+      <c r="E138" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="F138" s="112"/>
+      <c r="F138" s="190"/>
       <c r="G138" s="64">
         <v>3.76</v>
       </c>
       <c r="H138" s="65">
         <v>60</v>
       </c>
-      <c r="I138" s="113">
+      <c r="I138" s="191">
         <v>100</v>
       </c>
-      <c r="J138" s="114"/>
-      <c r="K138" s="115"/>
-      <c r="L138" s="116"/>
-      <c r="M138" s="117"/>
+      <c r="J138" s="192"/>
+      <c r="K138" s="202"/>
+      <c r="L138" s="203"/>
+      <c r="M138" s="204"/>
     </row>
     <row r="139" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="109"/>
-      <c r="C139" s="78">
+      <c r="B139" s="174"/>
+      <c r="C139" s="168">
         <v>1</v>
       </c>
       <c r="D139" s="30">
         <v>2</v>
       </c>
-      <c r="E139" s="94" t="s">
+      <c r="E139" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F139" s="95"/>
-      <c r="G139" s="96"/>
-      <c r="H139" s="97"/>
+      <c r="F139" s="105"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="107"/>
       <c r="I139" s="62">
         <v>40</v>
       </c>
       <c r="J139" s="32">
         <v>24</v>
       </c>
-      <c r="K139" s="91"/>
-      <c r="L139" s="92"/>
-      <c r="M139" s="93"/>
+      <c r="K139" s="165"/>
+      <c r="L139" s="201"/>
+      <c r="M139" s="166"/>
     </row>
     <row r="140" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="109"/>
-      <c r="C140" s="79"/>
+      <c r="B140" s="174"/>
+      <c r="C140" s="170"/>
       <c r="D140" s="33">
         <v>1</v>
       </c>
@@ -5368,21 +5368,21 @@
       <c r="F140" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="G140" s="98"/>
-      <c r="H140" s="99"/>
-      <c r="I140" s="88"/>
-      <c r="J140" s="90"/>
+      <c r="G140" s="108"/>
+      <c r="H140" s="109"/>
+      <c r="I140" s="163"/>
+      <c r="J140" s="164"/>
       <c r="K140" s="32">
         <v>20</v>
       </c>
       <c r="L140" s="32">
         <v>70</v>
       </c>
-      <c r="M140" s="204"/>
+      <c r="M140" s="85"/>
     </row>
     <row r="141" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="109"/>
-      <c r="C141" s="80"/>
+      <c r="B141" s="174"/>
+      <c r="C141" s="169"/>
       <c r="D141" s="33">
         <v>2</v>
       </c>
@@ -5392,45 +5392,45 @@
       <c r="F141" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G141" s="98"/>
-      <c r="H141" s="99"/>
-      <c r="I141" s="91"/>
-      <c r="J141" s="93"/>
+      <c r="G141" s="108"/>
+      <c r="H141" s="109"/>
+      <c r="I141" s="165"/>
+      <c r="J141" s="166"/>
       <c r="K141" s="32">
         <v>20</v>
       </c>
       <c r="L141" s="32">
         <v>70</v>
       </c>
-      <c r="M141" s="204"/>
+      <c r="M141" s="85"/>
     </row>
     <row r="142" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" s="109"/>
-      <c r="C142" s="78">
+      <c r="B142" s="174"/>
+      <c r="C142" s="168">
         <v>2</v>
       </c>
       <c r="D142" s="30">
         <v>3</v>
       </c>
-      <c r="E142" s="94" t="s">
+      <c r="E142" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F142" s="95"/>
-      <c r="G142" s="98"/>
-      <c r="H142" s="99"/>
+      <c r="F142" s="105"/>
+      <c r="G142" s="108"/>
+      <c r="H142" s="109"/>
       <c r="I142" s="62">
         <v>60</v>
       </c>
       <c r="J142" s="32">
         <v>36</v>
       </c>
-      <c r="K142" s="102"/>
-      <c r="L142" s="103"/>
-      <c r="M142" s="104"/>
+      <c r="K142" s="134"/>
+      <c r="L142" s="135"/>
+      <c r="M142" s="136"/>
     </row>
     <row r="143" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="109"/>
-      <c r="C143" s="79"/>
+      <c r="B143" s="174"/>
+      <c r="C143" s="170"/>
       <c r="D143" s="33">
         <v>1</v>
       </c>
@@ -5440,10 +5440,10 @@
       <c r="F143" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="G143" s="98"/>
-      <c r="H143" s="99"/>
-      <c r="I143" s="96"/>
-      <c r="J143" s="97"/>
+      <c r="G143" s="108"/>
+      <c r="H143" s="109"/>
+      <c r="I143" s="106"/>
+      <c r="J143" s="107"/>
       <c r="K143" s="32">
         <v>20</v>
       </c>
@@ -5453,8 +5453,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="109"/>
-      <c r="C144" s="79"/>
+      <c r="B144" s="174"/>
+      <c r="C144" s="170"/>
       <c r="D144" s="33">
         <v>2</v>
       </c>
@@ -5464,10 +5464,10 @@
       <c r="F144" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G144" s="98"/>
-      <c r="H144" s="99"/>
-      <c r="I144" s="98"/>
-      <c r="J144" s="99"/>
+      <c r="G144" s="108"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="108"/>
+      <c r="J144" s="109"/>
       <c r="K144" s="32">
         <v>20</v>
       </c>
@@ -5477,8 +5477,8 @@
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" s="110"/>
-      <c r="C145" s="80"/>
+      <c r="B145" s="175"/>
+      <c r="C145" s="169"/>
       <c r="D145" s="33">
         <v>3</v>
       </c>
@@ -5488,10 +5488,10 @@
       <c r="F145" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="G145" s="100"/>
-      <c r="H145" s="101"/>
-      <c r="I145" s="100"/>
-      <c r="J145" s="101"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="111"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="111"/>
       <c r="K145" s="32">
         <v>20</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="105">
+      <c r="B146" s="193">
         <v>9</v>
       </c>
       <c r="C146" s="66">
@@ -5510,51 +5510,51 @@
       <c r="D146" s="66">
         <v>5</v>
       </c>
-      <c r="E146" s="84" t="s">
+      <c r="E146" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="F146" s="108"/>
+      <c r="F146" s="197"/>
       <c r="G146" s="67">
         <v>3.76</v>
       </c>
       <c r="H146" s="62">
         <v>68</v>
       </c>
-      <c r="I146" s="86">
+      <c r="I146" s="198">
         <v>100</v>
       </c>
-      <c r="J146" s="87"/>
-      <c r="K146" s="88"/>
-      <c r="L146" s="89"/>
-      <c r="M146" s="90"/>
+      <c r="J146" s="199"/>
+      <c r="K146" s="163"/>
+      <c r="L146" s="200"/>
+      <c r="M146" s="164"/>
     </row>
     <row r="147" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="106"/>
-      <c r="C147" s="78">
+      <c r="B147" s="194"/>
+      <c r="C147" s="168">
         <v>1</v>
       </c>
       <c r="D147" s="30">
         <v>5</v>
       </c>
-      <c r="E147" s="94" t="s">
+      <c r="E147" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F147" s="95"/>
-      <c r="G147" s="96"/>
-      <c r="H147" s="97"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="106"/>
+      <c r="H147" s="107"/>
       <c r="I147" s="62">
         <v>100</v>
       </c>
       <c r="J147" s="32">
         <v>68</v>
       </c>
-      <c r="K147" s="91"/>
-      <c r="L147" s="92"/>
-      <c r="M147" s="93"/>
+      <c r="K147" s="165"/>
+      <c r="L147" s="201"/>
+      <c r="M147" s="166"/>
     </row>
     <row r="148" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B148" s="106"/>
-      <c r="C148" s="79"/>
+      <c r="B148" s="194"/>
+      <c r="C148" s="170"/>
       <c r="D148" s="68">
         <v>1</v>
       </c>
@@ -5564,21 +5564,21 @@
       <c r="F148" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G148" s="98"/>
-      <c r="H148" s="99"/>
-      <c r="I148" s="96"/>
-      <c r="J148" s="97"/>
+      <c r="G148" s="108"/>
+      <c r="H148" s="109"/>
+      <c r="I148" s="106"/>
+      <c r="J148" s="107"/>
       <c r="K148" s="70">
         <v>20</v>
       </c>
       <c r="L148" s="70">
         <v>70</v>
       </c>
-      <c r="M148" s="208"/>
+      <c r="M148" s="89"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="106"/>
-      <c r="C149" s="79"/>
+      <c r="B149" s="194"/>
+      <c r="C149" s="170"/>
       <c r="D149" s="33">
         <v>2</v>
       </c>
@@ -5588,10 +5588,10 @@
       <c r="F149" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="G149" s="98"/>
-      <c r="H149" s="99"/>
-      <c r="I149" s="98"/>
-      <c r="J149" s="99"/>
+      <c r="G149" s="108"/>
+      <c r="H149" s="109"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="109"/>
       <c r="K149" s="32">
         <v>20</v>
       </c>
@@ -5601,8 +5601,8 @@
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B150" s="106"/>
-      <c r="C150" s="79"/>
+      <c r="B150" s="194"/>
+      <c r="C150" s="170"/>
       <c r="D150" s="68">
         <v>3</v>
       </c>
@@ -5612,10 +5612,10 @@
       <c r="F150" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G150" s="98"/>
-      <c r="H150" s="99"/>
-      <c r="I150" s="98"/>
-      <c r="J150" s="99"/>
+      <c r="G150" s="108"/>
+      <c r="H150" s="109"/>
+      <c r="I150" s="108"/>
+      <c r="J150" s="109"/>
       <c r="K150" s="70">
         <v>20</v>
       </c>
@@ -5625,8 +5625,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="106"/>
-      <c r="C151" s="79"/>
+      <c r="B151" s="194"/>
+      <c r="C151" s="170"/>
       <c r="D151" s="33">
         <v>4</v>
       </c>
@@ -5636,21 +5636,21 @@
       <c r="F151" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G151" s="98"/>
-      <c r="H151" s="99"/>
-      <c r="I151" s="98"/>
-      <c r="J151" s="99"/>
+      <c r="G151" s="108"/>
+      <c r="H151" s="109"/>
+      <c r="I151" s="108"/>
+      <c r="J151" s="109"/>
       <c r="K151" s="32">
         <v>20</v>
       </c>
       <c r="L151" s="32">
         <v>80</v>
       </c>
-      <c r="M151" s="208"/>
+      <c r="M151" s="89"/>
     </row>
     <row r="152" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="107"/>
-      <c r="C152" s="80"/>
+      <c r="B152" s="195"/>
+      <c r="C152" s="169"/>
       <c r="D152" s="33">
         <v>5</v>
       </c>
@@ -5660,10 +5660,10 @@
       <c r="F152" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G152" s="100"/>
-      <c r="H152" s="101"/>
-      <c r="I152" s="100"/>
-      <c r="J152" s="101"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="111"/>
+      <c r="I152" s="110"/>
+      <c r="J152" s="111"/>
       <c r="K152" s="32">
         <v>20</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
     </row>
     <row r="154" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="81">
+      <c r="B154" s="205">
         <v>10</v>
       </c>
       <c r="C154" s="66">
@@ -5720,51 +5720,51 @@
       <c r="D154" s="66">
         <v>10</v>
       </c>
-      <c r="E154" s="84" t="s">
+      <c r="E154" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="F154" s="85"/>
+      <c r="F154" s="208"/>
       <c r="G154" s="71">
         <v>7.52</v>
       </c>
       <c r="H154" s="67">
         <v>63.33</v>
       </c>
-      <c r="I154" s="86">
+      <c r="I154" s="198">
         <v>100</v>
       </c>
-      <c r="J154" s="87"/>
-      <c r="K154" s="88"/>
-      <c r="L154" s="89"/>
-      <c r="M154" s="90"/>
+      <c r="J154" s="199"/>
+      <c r="K154" s="163"/>
+      <c r="L154" s="200"/>
+      <c r="M154" s="164"/>
     </row>
     <row r="155" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="82"/>
-      <c r="C155" s="78">
+      <c r="B155" s="206"/>
+      <c r="C155" s="168">
         <v>1</v>
       </c>
       <c r="D155" s="30">
         <v>6</v>
       </c>
-      <c r="E155" s="94" t="s">
+      <c r="E155" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="F155" s="95"/>
-      <c r="G155" s="96"/>
-      <c r="H155" s="97"/>
+      <c r="F155" s="105"/>
+      <c r="G155" s="106"/>
+      <c r="H155" s="107"/>
       <c r="I155" s="72">
         <v>60</v>
       </c>
       <c r="J155" s="32">
         <v>22</v>
       </c>
-      <c r="K155" s="91"/>
-      <c r="L155" s="92"/>
-      <c r="M155" s="93"/>
+      <c r="K155" s="165"/>
+      <c r="L155" s="201"/>
+      <c r="M155" s="166"/>
     </row>
     <row r="156" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="82"/>
-      <c r="C156" s="79"/>
+      <c r="B156" s="206"/>
+      <c r="C156" s="170"/>
       <c r="D156" s="33">
         <v>1</v>
       </c>
@@ -5774,10 +5774,10 @@
       <c r="F156" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G156" s="98"/>
-      <c r="H156" s="99"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="97"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="109"/>
+      <c r="I156" s="106"/>
+      <c r="J156" s="107"/>
       <c r="K156" s="32">
         <v>10</v>
       </c>
@@ -5787,8 +5787,8 @@
       <c r="M156" s="55"/>
     </row>
     <row r="157" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="82"/>
-      <c r="C157" s="79"/>
+      <c r="B157" s="206"/>
+      <c r="C157" s="170"/>
       <c r="D157" s="33">
         <v>2</v>
       </c>
@@ -5798,21 +5798,21 @@
       <c r="F157" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G157" s="98"/>
-      <c r="H157" s="99"/>
-      <c r="I157" s="98"/>
-      <c r="J157" s="99"/>
+      <c r="G157" s="108"/>
+      <c r="H157" s="109"/>
+      <c r="I157" s="108"/>
+      <c r="J157" s="109"/>
       <c r="K157" s="32">
         <v>10</v>
       </c>
       <c r="L157" s="32">
         <v>70</v>
       </c>
-      <c r="M157" s="204"/>
+      <c r="M157" s="85"/>
     </row>
     <row r="158" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="82"/>
-      <c r="C158" s="79"/>
+      <c r="B158" s="206"/>
+      <c r="C158" s="170"/>
       <c r="D158" s="33">
         <v>3</v>
       </c>
@@ -5822,10 +5822,10 @@
       <c r="F158" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G158" s="98"/>
-      <c r="H158" s="99"/>
-      <c r="I158" s="98"/>
-      <c r="J158" s="99"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="109"/>
+      <c r="I158" s="108"/>
+      <c r="J158" s="109"/>
       <c r="K158" s="32">
         <v>10</v>
       </c>
@@ -5835,8 +5835,8 @@
       <c r="M158" s="55"/>
     </row>
     <row r="159" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="82"/>
-      <c r="C159" s="79"/>
+      <c r="B159" s="206"/>
+      <c r="C159" s="170"/>
       <c r="D159" s="33">
         <v>4</v>
       </c>
@@ -5846,10 +5846,10 @@
       <c r="F159" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G159" s="98"/>
-      <c r="H159" s="99"/>
-      <c r="I159" s="98"/>
-      <c r="J159" s="99"/>
+      <c r="G159" s="108"/>
+      <c r="H159" s="109"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="109"/>
       <c r="K159" s="32">
         <v>10</v>
       </c>
@@ -5858,9 +5858,9 @@
       </c>
       <c r="M159" s="55"/>
     </row>
-    <row r="160" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B160" s="82"/>
-      <c r="C160" s="79"/>
+    <row r="160" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="206"/>
+      <c r="C160" s="170"/>
       <c r="D160" s="33">
         <v>5</v>
       </c>
@@ -5870,10 +5870,10 @@
       <c r="F160" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="G160" s="98"/>
-      <c r="H160" s="99"/>
-      <c r="I160" s="98"/>
-      <c r="J160" s="99"/>
+      <c r="G160" s="108"/>
+      <c r="H160" s="109"/>
+      <c r="I160" s="108"/>
+      <c r="J160" s="109"/>
       <c r="K160" s="32">
         <v>10</v>
       </c>
@@ -5883,8 +5883,8 @@
       <c r="M160" s="1"/>
     </row>
     <row r="161" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="82"/>
-      <c r="C161" s="80"/>
+      <c r="B161" s="206"/>
+      <c r="C161" s="169"/>
       <c r="D161" s="33">
         <v>6</v>
       </c>
@@ -5894,10 +5894,10 @@
       <c r="F161" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="G161" s="98"/>
-      <c r="H161" s="99"/>
-      <c r="I161" s="100"/>
-      <c r="J161" s="101"/>
+      <c r="G161" s="108"/>
+      <c r="H161" s="109"/>
+      <c r="I161" s="110"/>
+      <c r="J161" s="111"/>
       <c r="K161" s="32">
         <v>10</v>
       </c>
@@ -5907,32 +5907,32 @@
       <c r="M161" s="58"/>
     </row>
     <row r="162" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="82"/>
-      <c r="C162" s="78">
+      <c r="B162" s="206"/>
+      <c r="C162" s="168">
         <v>2</v>
       </c>
       <c r="D162" s="30">
         <v>2</v>
       </c>
-      <c r="E162" s="94" t="s">
+      <c r="E162" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F162" s="95"/>
-      <c r="G162" s="98"/>
-      <c r="H162" s="99"/>
+      <c r="F162" s="105"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="109"/>
       <c r="I162" s="72">
         <v>20</v>
       </c>
       <c r="J162" s="32">
         <v>12</v>
       </c>
-      <c r="K162" s="102"/>
-      <c r="L162" s="103"/>
-      <c r="M162" s="104"/>
+      <c r="K162" s="134"/>
+      <c r="L162" s="135"/>
+      <c r="M162" s="136"/>
     </row>
     <row r="163" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" s="82"/>
-      <c r="C163" s="79"/>
+      <c r="B163" s="206"/>
+      <c r="C163" s="170"/>
       <c r="D163" s="33">
         <v>1</v>
       </c>
@@ -5942,21 +5942,21 @@
       <c r="F163" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="G163" s="98"/>
-      <c r="H163" s="99"/>
-      <c r="I163" s="88"/>
-      <c r="J163" s="90"/>
+      <c r="G163" s="108"/>
+      <c r="H163" s="109"/>
+      <c r="I163" s="163"/>
+      <c r="J163" s="164"/>
       <c r="K163" s="32">
         <v>10</v>
       </c>
       <c r="L163" s="32">
         <v>70</v>
       </c>
-      <c r="M163" s="204"/>
+      <c r="M163" s="85"/>
     </row>
     <row r="164" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="82"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="206"/>
+      <c r="C164" s="169"/>
       <c r="D164" s="33">
         <v>2</v>
       </c>
@@ -5966,45 +5966,45 @@
       <c r="F164" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G164" s="98"/>
-      <c r="H164" s="99"/>
-      <c r="I164" s="91"/>
-      <c r="J164" s="93"/>
+      <c r="G164" s="108"/>
+      <c r="H164" s="109"/>
+      <c r="I164" s="165"/>
+      <c r="J164" s="166"/>
       <c r="K164" s="32">
         <v>10</v>
       </c>
       <c r="L164" s="32">
         <v>70</v>
       </c>
-      <c r="M164" s="204"/>
+      <c r="M164" s="85"/>
     </row>
     <row r="165" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" s="82"/>
-      <c r="C165" s="78">
+      <c r="B165" s="206"/>
+      <c r="C165" s="168">
         <v>3</v>
       </c>
       <c r="D165" s="30">
         <v>2</v>
       </c>
-      <c r="E165" s="94" t="s">
+      <c r="E165" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="F165" s="95"/>
-      <c r="G165" s="98"/>
-      <c r="H165" s="99"/>
+      <c r="F165" s="105"/>
+      <c r="G165" s="108"/>
+      <c r="H165" s="109"/>
       <c r="I165" s="72">
         <v>20</v>
       </c>
       <c r="J165" s="32">
         <v>2</v>
       </c>
-      <c r="K165" s="102"/>
-      <c r="L165" s="103"/>
-      <c r="M165" s="104"/>
+      <c r="K165" s="134"/>
+      <c r="L165" s="135"/>
+      <c r="M165" s="136"/>
     </row>
     <row r="166" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="82"/>
-      <c r="C166" s="79"/>
+      <c r="B166" s="206"/>
+      <c r="C166" s="170"/>
       <c r="D166" s="33">
         <v>1</v>
       </c>
@@ -6014,21 +6014,21 @@
       <c r="F166" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="G166" s="98"/>
-      <c r="H166" s="99"/>
-      <c r="I166" s="88"/>
-      <c r="J166" s="90"/>
+      <c r="G166" s="108"/>
+      <c r="H166" s="109"/>
+      <c r="I166" s="163"/>
+      <c r="J166" s="164"/>
       <c r="K166" s="32">
         <v>10</v>
       </c>
       <c r="L166" s="32">
         <v>70</v>
       </c>
-      <c r="M166" s="204"/>
+      <c r="M166" s="85"/>
     </row>
     <row r="167" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="83"/>
-      <c r="C167" s="80"/>
+      <c r="B167" s="207"/>
+      <c r="C167" s="169"/>
       <c r="D167" s="33">
         <v>2</v>
       </c>
@@ -6038,17 +6038,17 @@
       <c r="F167" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G167" s="100"/>
-      <c r="H167" s="101"/>
-      <c r="I167" s="91"/>
-      <c r="J167" s="93"/>
+      <c r="G167" s="110"/>
+      <c r="H167" s="111"/>
+      <c r="I167" s="165"/>
+      <c r="J167" s="166"/>
       <c r="K167" s="32">
         <v>10</v>
       </c>
       <c r="L167" s="32">
         <v>70</v>
       </c>
-      <c r="M167" s="204"/>
+      <c r="M167" s="85"/>
     </row>
     <row r="171" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="73" t="s">
@@ -6074,52 +6074,90 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H68"/>
-    <mergeCell ref="I55:J60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I62:J68"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B16:B29"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C155:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="B154:B167"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:M155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H167"/>
+    <mergeCell ref="I156:J161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="K162:M162"/>
+    <mergeCell ref="I163:J164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="I166:J167"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="K146:M147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H152"/>
+    <mergeCell ref="I148:J152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="B138:B145"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:M139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H145"/>
+    <mergeCell ref="I140:J141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="K142:M142"/>
+    <mergeCell ref="I143:J145"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="B114:B136"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="G115:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="I123:J124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="I126:J128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="I130:J134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:M115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="I118:J121"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="B70:B112"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H112"/>
+    <mergeCell ref="I103:J105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="I89:J90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="I92:J95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="I97:J101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="K102:M102"/>
     <mergeCell ref="K106:M106"/>
     <mergeCell ref="I107:J112"/>
     <mergeCell ref="C71:C75"/>
@@ -6144,90 +6182,52 @@
     <mergeCell ref="K83:M83"/>
     <mergeCell ref="I84:J85"/>
     <mergeCell ref="E86:F86"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="I89:J90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="I92:J95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="I97:J101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="I118:J121"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="B70:B112"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H112"/>
-    <mergeCell ref="I103:J105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="B114:B136"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="G115:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="I123:J124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="I126:J128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="I130:J134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:M115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="B146:B152"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="K146:M147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H152"/>
-    <mergeCell ref="I148:J152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="B138:B145"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:M139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H145"/>
-    <mergeCell ref="I140:J141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="K142:M142"/>
-    <mergeCell ref="I143:J145"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C155:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="B154:B167"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:M155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H167"/>
-    <mergeCell ref="I156:J161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="K162:M162"/>
-    <mergeCell ref="I163:J164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="I166:J167"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H68"/>
+    <mergeCell ref="I55:J60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I62:J68"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="E48:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
